--- a/ml_theory.xlsx
+++ b/ml_theory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="17235" windowHeight="12345"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="17232" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Linear regression</t>
+  </si>
+  <si>
+    <t>fature normalisation</t>
+  </si>
+  <si>
+    <t>xnorm=(x-mean(x))/std(x)</t>
+  </si>
+  <si>
+    <t>std - standard deviation</t>
+  </si>
+  <si>
+    <t>or can use max-min</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>with overfitting reduce</t>
+  </si>
+  <si>
+    <t>theta0 don't need to penalty</t>
   </si>
 </sst>
 </file>
@@ -93,7 +114,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>608948</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190203</xdr:rowOff>
+      <xdr:rowOff>182583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -150,6 +171,120 @@
         <a:xfrm>
           <a:off x="1971675" y="4429125"/>
           <a:ext cx="5457143" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297312</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="6957060"/>
+          <a:ext cx="1516512" cy="1005927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488003</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2865120" y="6850380"/>
+          <a:ext cx="3718883" cy="1524132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389060</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>175438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="9288780"/>
+          <a:ext cx="5075360" cy="2049958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,17 +583,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8"/>
+  <dimension ref="C8:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="8" spans="3:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -474,7 +642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -486,7 +654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
